--- a/Mifos Automation Excels/Client/4460-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery2weeksonWednesday-DisburseJLGloanonmeetingdatewithevery2weeksrepayment.xlsx
+++ b/Mifos Automation Excels/Client/4460-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery2weeksonWednesday-DisburseJLGloanonmeetingdatewithevery2weeksrepayment.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>submittedon</t>
   </si>
@@ -206,9 +201,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -331,12 +323,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -376,6 +368,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -397,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,41 +418,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,8 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -512,6 +478,9 @@
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,26 +575,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,23 +610,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -872,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -949,7 +884,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -960,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -973,7 +908,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -981,7 +916,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -989,15 +924,15 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
         <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -1005,7 +940,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -1029,17 +964,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="24">
+        <v>82</v>
+      </c>
+      <c r="B2" s="22">
         <v>42076</v>
       </c>
     </row>
@@ -1064,7 +999,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>22</v>
@@ -1072,7 +1007,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1080,7 +1015,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1088,7 +1023,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1118,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1199,7 +1134,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1217,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="14">
         <v>6</v>
@@ -1445,106 +1380,106 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>10000</v>
       </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
         <v>10000</v>
       </c>
-      <c r="F2" s="29">
-        <v>3308.19</v>
+      <c r="F2" s="27">
+        <v>1647.54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
-        <v>156.55000000000001</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>156.55000000000001</v>
-      </c>
-      <c r="F3" s="28">
-        <v>79.19</v>
+      <c r="A3" s="26">
+        <v>162.16</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>162.16</v>
+      </c>
+      <c r="F3" s="26">
+        <v>46.15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
-        <v>0</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="A4" s="26">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="A5" s="26">
+        <v>0</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1558,7 +1493,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1566,348 +1501,350 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>42074</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <v>10000</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="28">
+      <c r="I2" s="26">
         <v>0</v>
       </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="28">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20"/>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>14</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>42088</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>1647.54</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <v>8352.4599999999991</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <v>46.15</v>
       </c>
-      <c r="I3" s="28">
-        <v>0</v>
-      </c>
-      <c r="J3" s="28">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29">
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
         <v>1693.69</v>
       </c>
-      <c r="L3" s="28">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="29">
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27">
         <v>1693.69</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>14</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>42102</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="29">
-        <v>1660.65</v>
-      </c>
-      <c r="G4" s="29">
-        <v>6691.81</v>
-      </c>
-      <c r="H4" s="28">
-        <v>33.04</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="28">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="F4" s="27">
+        <v>1655.14</v>
+      </c>
+      <c r="G4" s="27">
+        <v>6697.32</v>
+      </c>
+      <c r="H4" s="26">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
         <v>1693.69</v>
       </c>
-      <c r="L4" s="28">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="29">
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27">
         <v>1693.69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>14</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>42116</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="29">
-        <v>1662.8</v>
-      </c>
-      <c r="G5" s="29">
-        <v>5029.01</v>
-      </c>
-      <c r="H5" s="28">
-        <v>30.89</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="28">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29">
+      <c r="F5" s="27">
+        <v>1662.78</v>
+      </c>
+      <c r="G5" s="27">
+        <v>5034.54</v>
+      </c>
+      <c r="H5" s="26">
+        <v>30.91</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
         <v>1693.69</v>
       </c>
-      <c r="L5" s="28">
-        <v>0</v>
-      </c>
-      <c r="M5" s="28">
-        <v>0</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="29">
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27">
         <v>1693.69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>14</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>42130</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="29">
-        <v>1670.48</v>
-      </c>
-      <c r="G6" s="29">
-        <v>3358.53</v>
-      </c>
-      <c r="H6" s="28">
-        <v>23.21</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
-        <v>0</v>
-      </c>
-      <c r="K6" s="29">
+      <c r="F6" s="27">
+        <v>1670.45</v>
+      </c>
+      <c r="G6" s="27">
+        <v>3364.09</v>
+      </c>
+      <c r="H6" s="26">
+        <v>23.24</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
         <v>1693.69</v>
       </c>
-      <c r="L6" s="28">
-        <v>0</v>
-      </c>
-      <c r="M6" s="28">
-        <v>0</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="29">
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27">
         <v>1693.69</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>14</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>42144</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="29">
-        <v>1678.19</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1680.34</v>
-      </c>
-      <c r="H7" s="28">
-        <v>15.5</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="F7" s="27">
+        <v>1678.16</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1685.93</v>
+      </c>
+      <c r="H7" s="26">
+        <v>15.53</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
         <v>1693.69</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27">
         <v>1693.69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>14</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>42158</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="29">
-        <v>1680.34</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <v>7.76</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
-        <v>1688.1</v>
-      </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>1688.1</v>
+      <c r="F8" s="27">
+        <v>1685.93</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>7.78</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1693.71</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27">
+        <v>1693.71</v>
       </c>
     </row>
   </sheetData>
@@ -1927,34 +1864,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1962,13 +1899,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="19">
         <v>10000</v>
@@ -2010,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>22</v>
@@ -2018,7 +1955,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2026,15 +1963,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5">
         <v>42095</v>
@@ -2042,7 +1979,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2050,10 +1987,10 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
